--- a/test/POC1G/model_output.POC1G.xlsx
+++ b/test/POC1G/model_output.POC1G.xlsx
@@ -420,7 +420,7 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>2.9999999999999853</v>
+        <v>2.9999999999999876</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -452,7 +452,7 @@
         <v>4.5</v>
       </c>
       <c r="B6">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -460,7 +460,7 @@
         <v>5.5</v>
       </c>
       <c r="B7">
-        <v>2.9999999999999853</v>
+        <v>2.999999999999985</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -468,7 +468,7 @@
         <v>6.5</v>
       </c>
       <c r="B8">
-        <v>2.9999999999999853</v>
+        <v>2.999999999999985</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -476,7 +476,7 @@
         <v>7.5</v>
       </c>
       <c r="B9">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -564,7 +564,7 @@
         <v>18.5</v>
       </c>
       <c r="B20">
-        <v>2.9999999999999853</v>
+        <v>2.999999999999985</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -588,7 +588,7 @@
         <v>21.5</v>
       </c>
       <c r="B23">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -628,7 +628,7 @@
         <v>26.5</v>
       </c>
       <c r="B28">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -636,7 +636,7 @@
         <v>27.5</v>
       </c>
       <c r="B29">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -644,7 +644,7 @@
         <v>28.5</v>
       </c>
       <c r="B30">
-        <v>2.9999999999999853</v>
+        <v>2.999999999999985</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -660,7 +660,7 @@
         <v>30.5</v>
       </c>
       <c r="B32">
-        <v>2.9999999999999853</v>
+        <v>2.999999999999985</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -676,7 +676,7 @@
         <v>32.5</v>
       </c>
       <c r="B34">
-        <v>2.9999999999999853</v>
+        <v>2.999999999999985</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -684,7 +684,7 @@
         <v>33.5</v>
       </c>
       <c r="B35">
-        <v>2.9999999999999853</v>
+        <v>2.999999999999985</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -692,7 +692,7 @@
         <v>34.5</v>
       </c>
       <c r="B36">
-        <v>2.9999999999999853</v>
+        <v>2.999999999999985</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -700,7 +700,7 @@
         <v>35.5</v>
       </c>
       <c r="B37">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -708,7 +708,7 @@
         <v>36.5</v>
       </c>
       <c r="B38">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -716,7 +716,7 @@
         <v>37.5</v>
       </c>
       <c r="B39">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -724,7 +724,7 @@
         <v>38.5</v>
       </c>
       <c r="B40">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -732,7 +732,7 @@
         <v>39.5</v>
       </c>
       <c r="B41">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42.5</v>
       </c>
       <c r="B44">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -772,7 +772,7 @@
         <v>44.5</v>
       </c>
       <c r="B46">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -780,7 +780,7 @@
         <v>45.5</v>
       </c>
       <c r="B47">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -804,7 +804,7 @@
         <v>48.5</v>
       </c>
       <c r="B50">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -812,7 +812,7 @@
         <v>49.5</v>
       </c>
       <c r="B51">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -844,7 +844,7 @@
         <v>53.5</v>
       </c>
       <c r="B55">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -852,7 +852,7 @@
         <v>54.5</v>
       </c>
       <c r="B56">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -884,7 +884,7 @@
         <v>58.5</v>
       </c>
       <c r="B60">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -908,7 +908,7 @@
         <v>61.5</v>
       </c>
       <c r="B63">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -940,7 +940,7 @@
         <v>65.5</v>
       </c>
       <c r="B67">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -948,7 +948,7 @@
         <v>66.5</v>
       </c>
       <c r="B68">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -980,7 +980,7 @@
         <v>70.5</v>
       </c>
       <c r="B72">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -996,7 +996,7 @@
         <v>72.5</v>
       </c>
       <c r="B74">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>73.5</v>
       </c>
       <c r="B75">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>74.5</v>
       </c>
       <c r="B76">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>77.5</v>
       </c>
       <c r="B79">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>78.5</v>
       </c>
       <c r="B80">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>80.5</v>
       </c>
       <c r="B82">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>82.5</v>
       </c>
       <c r="B84">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>85.5</v>
       </c>
       <c r="B87">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>86.5</v>
       </c>
       <c r="B88">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>87.5</v>
       </c>
       <c r="B89">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>93.5</v>
       </c>
       <c r="B95">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>94.5</v>
       </c>
       <c r="B96">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>97.5</v>
       </c>
       <c r="B99">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>103.5</v>
       </c>
       <c r="B105">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>107.5</v>
       </c>
       <c r="B109">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>108.5</v>
       </c>
       <c r="B110">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>109.5</v>
       </c>
       <c r="B111">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>112.5</v>
       </c>
       <c r="B114">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>113.5</v>
       </c>
       <c r="B115">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>115.5</v>
       </c>
       <c r="B117">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>116.5</v>
       </c>
       <c r="B118">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>119.5</v>
       </c>
       <c r="B121">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>120.5</v>
       </c>
       <c r="B122">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>122.5</v>
       </c>
       <c r="B124">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>123.5</v>
       </c>
       <c r="B125">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>124.5</v>
       </c>
       <c r="B126">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>125.5</v>
       </c>
       <c r="B127">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>127.5</v>
       </c>
       <c r="B129">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>131.5</v>
       </c>
       <c r="B133">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>135.5</v>
       </c>
       <c r="B137">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>138.5</v>
       </c>
       <c r="B140">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>139.5</v>
       </c>
       <c r="B141">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>141.5</v>
       </c>
       <c r="B143">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1588,7 +1588,7 @@
         <v>146.5</v>
       </c>
       <c r="B148">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1604,7 +1604,7 @@
         <v>148.5</v>
       </c>
       <c r="B150">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1652,7 +1652,7 @@
         <v>154.5</v>
       </c>
       <c r="B156">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1668,7 +1668,7 @@
         <v>156.5</v>
       </c>
       <c r="B158">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1692,7 +1692,7 @@
         <v>159.5</v>
       </c>
       <c r="B161">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1724,7 +1724,7 @@
         <v>163.5</v>
       </c>
       <c r="B165">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1740,7 +1740,7 @@
         <v>165.5</v>
       </c>
       <c r="B167">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1748,7 +1748,7 @@
         <v>166.5</v>
       </c>
       <c r="B168">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1764,7 +1764,7 @@
         <v>168.5</v>
       </c>
       <c r="B170">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1780,7 +1780,7 @@
         <v>170.5</v>
       </c>
       <c r="B172">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1836,7 +1836,7 @@
         <v>177.5</v>
       </c>
       <c r="B179">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1876,7 +1876,7 @@
         <v>182.5</v>
       </c>
       <c r="B184">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1980,7 +1980,7 @@
         <v>195.5</v>
       </c>
       <c r="B197">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2004,7 +2004,7 @@
         <v>198.5</v>
       </c>
       <c r="B200">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2028,7 +2028,7 @@
         <v>201.5</v>
       </c>
       <c r="B203">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2044,7 +2044,7 @@
         <v>203.5</v>
       </c>
       <c r="B205">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2052,7 +2052,7 @@
         <v>204.5</v>
       </c>
       <c r="B206">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2060,7 +2060,7 @@
         <v>205.5</v>
       </c>
       <c r="B207">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2068,7 +2068,7 @@
         <v>206.5</v>
       </c>
       <c r="B208">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2092,7 +2092,7 @@
         <v>209.5</v>
       </c>
       <c r="B211">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2100,7 +2100,7 @@
         <v>210.5</v>
       </c>
       <c r="B212">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2108,7 +2108,7 @@
         <v>211.5</v>
       </c>
       <c r="B213">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2116,7 +2116,7 @@
         <v>212.5</v>
       </c>
       <c r="B214">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2156,7 +2156,7 @@
         <v>217.5</v>
       </c>
       <c r="B219">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2172,7 +2172,7 @@
         <v>219.5</v>
       </c>
       <c r="B221">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2204,7 +2204,7 @@
         <v>223.5</v>
       </c>
       <c r="B225">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2212,7 +2212,7 @@
         <v>224.5</v>
       </c>
       <c r="B226">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2252,7 +2252,7 @@
         <v>229.5</v>
       </c>
       <c r="B231">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2260,7 +2260,7 @@
         <v>230.5</v>
       </c>
       <c r="B232">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2268,7 +2268,7 @@
         <v>231.5</v>
       </c>
       <c r="B233">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2284,7 +2284,7 @@
         <v>233.5</v>
       </c>
       <c r="B235">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2300,7 +2300,7 @@
         <v>235.5</v>
       </c>
       <c r="B237">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2316,7 +2316,7 @@
         <v>237.5</v>
       </c>
       <c r="B239">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2332,7 +2332,7 @@
         <v>239.5</v>
       </c>
       <c r="B241">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2340,7 +2340,7 @@
         <v>240.5</v>
       </c>
       <c r="B242">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2356,7 +2356,7 @@
         <v>242.5</v>
       </c>
       <c r="B244">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2364,7 +2364,7 @@
         <v>243.5</v>
       </c>
       <c r="B245">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2372,7 +2372,7 @@
         <v>244.5</v>
       </c>
       <c r="B246">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2388,7 +2388,7 @@
         <v>246.5</v>
       </c>
       <c r="B248">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2396,7 +2396,7 @@
         <v>247.5</v>
       </c>
       <c r="B249">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2420,7 +2420,7 @@
         <v>250.5</v>
       </c>
       <c r="B252">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2508,7 +2508,7 @@
         <v>261.5</v>
       </c>
       <c r="B263">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2516,7 +2516,7 @@
         <v>262.5</v>
       </c>
       <c r="B264">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2556,7 +2556,7 @@
         <v>267.5</v>
       </c>
       <c r="B269">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2564,7 +2564,7 @@
         <v>268.5</v>
       </c>
       <c r="B270">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2572,7 +2572,7 @@
         <v>269.5</v>
       </c>
       <c r="B271">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2604,7 +2604,7 @@
         <v>273.5</v>
       </c>
       <c r="B275">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2620,7 +2620,7 @@
         <v>275.5</v>
       </c>
       <c r="B277">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2628,7 +2628,7 @@
         <v>276.5</v>
       </c>
       <c r="B278">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2644,7 +2644,7 @@
         <v>278.5</v>
       </c>
       <c r="B280">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2660,7 +2660,7 @@
         <v>280.5</v>
       </c>
       <c r="B282">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2684,7 +2684,7 @@
         <v>283.5</v>
       </c>
       <c r="B285">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2692,7 +2692,7 @@
         <v>284.5</v>
       </c>
       <c r="B286">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2732,7 +2732,7 @@
         <v>289.5</v>
       </c>
       <c r="B291">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2764,7 +2764,7 @@
         <v>293.5</v>
       </c>
       <c r="B295">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2772,7 +2772,7 @@
         <v>294.5</v>
       </c>
       <c r="B296">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2780,7 +2780,7 @@
         <v>295.5</v>
       </c>
       <c r="B297">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2804,7 +2804,7 @@
         <v>298.5</v>
       </c>
       <c r="B300">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2812,7 +2812,7 @@
         <v>299.5</v>
       </c>
       <c r="B301">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2820,7 +2820,7 @@
         <v>300.5</v>
       </c>
       <c r="B302">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2828,7 +2828,7 @@
         <v>301.5</v>
       </c>
       <c r="B303">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2836,7 +2836,7 @@
         <v>302.5</v>
       </c>
       <c r="B304">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2852,7 +2852,7 @@
         <v>304.5</v>
       </c>
       <c r="B306">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2860,7 +2860,7 @@
         <v>305.5</v>
       </c>
       <c r="B307">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2868,7 +2868,7 @@
         <v>306.5</v>
       </c>
       <c r="B308">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2876,7 +2876,7 @@
         <v>307.5</v>
       </c>
       <c r="B309">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2924,7 +2924,7 @@
         <v>313.5</v>
       </c>
       <c r="B315">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2956,7 +2956,7 @@
         <v>317.5</v>
       </c>
       <c r="B319">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2964,7 +2964,7 @@
         <v>318.5</v>
       </c>
       <c r="B320">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2972,7 +2972,7 @@
         <v>319.5</v>
       </c>
       <c r="B321">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2996,7 +2996,7 @@
         <v>322.5</v>
       </c>
       <c r="B324">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -3020,7 +3020,7 @@
         <v>325.5</v>
       </c>
       <c r="B327">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3028,7 +3028,7 @@
         <v>326.5</v>
       </c>
       <c r="B328">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3036,7 +3036,7 @@
         <v>327.5</v>
       </c>
       <c r="B329">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3060,7 +3060,7 @@
         <v>330.5</v>
       </c>
       <c r="B332">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3068,7 +3068,7 @@
         <v>331.5</v>
       </c>
       <c r="B333">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3076,7 +3076,7 @@
         <v>332.5</v>
       </c>
       <c r="B334">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3116,7 +3116,7 @@
         <v>337.5</v>
       </c>
       <c r="B339">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3140,7 +3140,7 @@
         <v>340.5</v>
       </c>
       <c r="B342">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3172,7 +3172,7 @@
         <v>344.5</v>
       </c>
       <c r="B346">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3188,7 +3188,7 @@
         <v>346.5</v>
       </c>
       <c r="B348">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3196,7 +3196,7 @@
         <v>347.5</v>
       </c>
       <c r="B349">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3212,7 +3212,7 @@
         <v>349.5</v>
       </c>
       <c r="B351">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3236,7 +3236,7 @@
         <v>352.5</v>
       </c>
       <c r="B354">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3244,7 +3244,7 @@
         <v>353.5</v>
       </c>
       <c r="B355">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3260,7 +3260,7 @@
         <v>355.5</v>
       </c>
       <c r="B357">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3268,7 +3268,7 @@
         <v>356.5</v>
       </c>
       <c r="B358">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3292,7 +3292,7 @@
         <v>359.5</v>
       </c>
       <c r="B361">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3300,7 +3300,7 @@
         <v>360.5</v>
       </c>
       <c r="B362">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3308,7 +3308,7 @@
         <v>361.5</v>
       </c>
       <c r="B363">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3316,7 +3316,7 @@
         <v>362.5</v>
       </c>
       <c r="B364">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3340,7 +3340,7 @@
         <v>365.5</v>
       </c>
       <c r="B367">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3372,7 +3372,7 @@
         <v>369.5</v>
       </c>
       <c r="B371">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3380,7 +3380,7 @@
         <v>370.5</v>
       </c>
       <c r="B372">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3396,7 +3396,7 @@
         <v>372.5</v>
       </c>
       <c r="B374">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3412,7 +3412,7 @@
         <v>374.5</v>
       </c>
       <c r="B376">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3444,7 +3444,7 @@
         <v>378.5</v>
       </c>
       <c r="B380">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3452,7 +3452,7 @@
         <v>379.5</v>
       </c>
       <c r="B381">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3468,7 +3468,7 @@
         <v>381.5</v>
       </c>
       <c r="B383">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3476,7 +3476,7 @@
         <v>382.5</v>
       </c>
       <c r="B384">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3500,7 +3500,7 @@
         <v>385.5</v>
       </c>
       <c r="B387">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3540,7 +3540,7 @@
         <v>390.5</v>
       </c>
       <c r="B392">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3580,7 +3580,7 @@
         <v>395.5</v>
       </c>
       <c r="B397">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3604,7 +3604,7 @@
         <v>398.5</v>
       </c>
       <c r="B400">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3612,7 +3612,7 @@
         <v>399.5</v>
       </c>
       <c r="B401">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3644,7 +3644,7 @@
         <v>403.5</v>
       </c>
       <c r="B405">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3652,7 +3652,7 @@
         <v>404.5</v>
       </c>
       <c r="B406">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3668,7 +3668,7 @@
         <v>406.5</v>
       </c>
       <c r="B408">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>407.5</v>
       </c>
       <c r="B409">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>409.5</v>
       </c>
       <c r="B411">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3708,7 +3708,7 @@
         <v>411.5</v>
       </c>
       <c r="B413">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3732,7 +3732,7 @@
         <v>414.5</v>
       </c>
       <c r="B416">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3740,7 +3740,7 @@
         <v>415.5</v>
       </c>
       <c r="B417">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3764,7 +3764,7 @@
         <v>418.5</v>
       </c>
       <c r="B420">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3772,7 +3772,7 @@
         <v>419.5</v>
       </c>
       <c r="B421">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3812,7 +3812,7 @@
         <v>424.5</v>
       </c>
       <c r="B426">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3852,7 +3852,7 @@
         <v>429.5</v>
       </c>
       <c r="B431">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3884,7 +3884,7 @@
         <v>433.5</v>
       </c>
       <c r="B435">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3892,7 +3892,7 @@
         <v>434.5</v>
       </c>
       <c r="B436">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3908,7 +3908,7 @@
         <v>436.5</v>
       </c>
       <c r="B438">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3916,7 +3916,7 @@
         <v>437.5</v>
       </c>
       <c r="B439">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3940,7 +3940,7 @@
         <v>440.5</v>
       </c>
       <c r="B442">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3956,7 +3956,7 @@
         <v>442.5</v>
       </c>
       <c r="B444">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3964,7 +3964,7 @@
         <v>443.5</v>
       </c>
       <c r="B445">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3972,7 +3972,7 @@
         <v>444.5</v>
       </c>
       <c r="B446">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3988,7 +3988,7 @@
         <v>446.5</v>
       </c>
       <c r="B448">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -4020,7 +4020,7 @@
         <v>450.5</v>
       </c>
       <c r="B452">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4052,7 +4052,7 @@
         <v>454.5</v>
       </c>
       <c r="B456">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4060,7 +4060,7 @@
         <v>455.5</v>
       </c>
       <c r="B457">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4068,7 +4068,7 @@
         <v>456.5</v>
       </c>
       <c r="B458">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4148,7 +4148,7 @@
         <v>466.5</v>
       </c>
       <c r="B468">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4188,7 +4188,7 @@
         <v>471.5</v>
       </c>
       <c r="B473">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4204,7 +4204,7 @@
         <v>473.5</v>
       </c>
       <c r="B475">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4228,7 +4228,7 @@
         <v>476.5</v>
       </c>
       <c r="B478">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4236,7 +4236,7 @@
         <v>477.5</v>
       </c>
       <c r="B479">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4244,7 +4244,7 @@
         <v>478.5</v>
       </c>
       <c r="B480">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4252,7 +4252,7 @@
         <v>479.5</v>
       </c>
       <c r="B481">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4260,7 +4260,7 @@
         <v>480.5</v>
       </c>
       <c r="B482">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4276,7 +4276,7 @@
         <v>482.5</v>
       </c>
       <c r="B484">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4292,7 +4292,7 @@
         <v>484.5</v>
       </c>
       <c r="B486">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4316,7 +4316,7 @@
         <v>487.5</v>
       </c>
       <c r="B489">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4396,7 +4396,7 @@
         <v>497.5</v>
       </c>
       <c r="B499">
-        <v>2.999999999999985</v>
+        <v>2.9999999999999853</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4441,7 +4441,7 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>0.014999999999999927</v>
+        <v>0.014999999999999939</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4473,7 +4473,7 @@
         <v>4.5</v>
       </c>
       <c r="B6">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4481,7 +4481,7 @@
         <v>5.5</v>
       </c>
       <c r="B7">
-        <v>0.014999999999999927</v>
+        <v>0.014999999999999925</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4489,7 +4489,7 @@
         <v>6.5</v>
       </c>
       <c r="B8">
-        <v>0.014999999999999927</v>
+        <v>0.014999999999999925</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4497,7 +4497,7 @@
         <v>7.5</v>
       </c>
       <c r="B9">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4585,7 +4585,7 @@
         <v>18.5</v>
       </c>
       <c r="B20">
-        <v>0.014999999999999927</v>
+        <v>0.014999999999999925</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4609,7 +4609,7 @@
         <v>21.5</v>
       </c>
       <c r="B23">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4649,7 +4649,7 @@
         <v>26.5</v>
       </c>
       <c r="B28">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4657,7 +4657,7 @@
         <v>27.5</v>
       </c>
       <c r="B29">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4665,7 +4665,7 @@
         <v>28.5</v>
       </c>
       <c r="B30">
-        <v>0.014999999999999927</v>
+        <v>0.014999999999999925</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4681,7 +4681,7 @@
         <v>30.5</v>
       </c>
       <c r="B32">
-        <v>0.014999999999999927</v>
+        <v>0.014999999999999925</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4697,7 +4697,7 @@
         <v>32.5</v>
       </c>
       <c r="B34">
-        <v>0.014999999999999927</v>
+        <v>0.014999999999999925</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4705,7 +4705,7 @@
         <v>33.5</v>
       </c>
       <c r="B35">
-        <v>0.014999999999999927</v>
+        <v>0.014999999999999925</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4713,7 +4713,7 @@
         <v>34.5</v>
       </c>
       <c r="B36">
-        <v>0.014999999999999927</v>
+        <v>0.014999999999999925</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4721,7 +4721,7 @@
         <v>35.5</v>
       </c>
       <c r="B37">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>36.5</v>
       </c>
       <c r="B38">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>37.5</v>
       </c>
       <c r="B39">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>38.5</v>
       </c>
       <c r="B40">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4753,7 +4753,7 @@
         <v>39.5</v>
       </c>
       <c r="B41">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4777,7 +4777,7 @@
         <v>42.5</v>
       </c>
       <c r="B44">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4793,7 +4793,7 @@
         <v>44.5</v>
       </c>
       <c r="B46">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4801,7 +4801,7 @@
         <v>45.5</v>
       </c>
       <c r="B47">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4825,7 +4825,7 @@
         <v>48.5</v>
       </c>
       <c r="B50">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4833,7 +4833,7 @@
         <v>49.5</v>
       </c>
       <c r="B51">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4865,7 +4865,7 @@
         <v>53.5</v>
       </c>
       <c r="B55">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4873,7 +4873,7 @@
         <v>54.5</v>
       </c>
       <c r="B56">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4905,7 +4905,7 @@
         <v>58.5</v>
       </c>
       <c r="B60">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4929,7 +4929,7 @@
         <v>61.5</v>
       </c>
       <c r="B63">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4961,7 +4961,7 @@
         <v>65.5</v>
       </c>
       <c r="B67">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4969,7 +4969,7 @@
         <v>66.5</v>
       </c>
       <c r="B68">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5001,7 +5001,7 @@
         <v>70.5</v>
       </c>
       <c r="B72">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5017,7 +5017,7 @@
         <v>72.5</v>
       </c>
       <c r="B74">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5025,7 +5025,7 @@
         <v>73.5</v>
       </c>
       <c r="B75">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5033,7 +5033,7 @@
         <v>74.5</v>
       </c>
       <c r="B76">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5057,7 +5057,7 @@
         <v>77.5</v>
       </c>
       <c r="B79">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -5065,7 +5065,7 @@
         <v>78.5</v>
       </c>
       <c r="B80">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5081,7 +5081,7 @@
         <v>80.5</v>
       </c>
       <c r="B82">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5097,7 +5097,7 @@
         <v>82.5</v>
       </c>
       <c r="B84">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5121,7 +5121,7 @@
         <v>85.5</v>
       </c>
       <c r="B87">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -5129,7 +5129,7 @@
         <v>86.5</v>
       </c>
       <c r="B88">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -5137,7 +5137,7 @@
         <v>87.5</v>
       </c>
       <c r="B89">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5185,7 +5185,7 @@
         <v>93.5</v>
       </c>
       <c r="B95">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -5193,7 +5193,7 @@
         <v>94.5</v>
       </c>
       <c r="B96">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -5217,7 +5217,7 @@
         <v>97.5</v>
       </c>
       <c r="B99">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5265,7 +5265,7 @@
         <v>103.5</v>
       </c>
       <c r="B105">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -5297,7 +5297,7 @@
         <v>107.5</v>
       </c>
       <c r="B109">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5305,7 +5305,7 @@
         <v>108.5</v>
       </c>
       <c r="B110">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -5313,7 +5313,7 @@
         <v>109.5</v>
       </c>
       <c r="B111">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -5337,7 +5337,7 @@
         <v>112.5</v>
       </c>
       <c r="B114">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5345,7 +5345,7 @@
         <v>113.5</v>
       </c>
       <c r="B115">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -5361,7 +5361,7 @@
         <v>115.5</v>
       </c>
       <c r="B117">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -5369,7 +5369,7 @@
         <v>116.5</v>
       </c>
       <c r="B118">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -5393,7 +5393,7 @@
         <v>119.5</v>
       </c>
       <c r="B121">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -5401,7 +5401,7 @@
         <v>120.5</v>
       </c>
       <c r="B122">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -5417,7 +5417,7 @@
         <v>122.5</v>
       </c>
       <c r="B124">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5425,7 +5425,7 @@
         <v>123.5</v>
       </c>
       <c r="B125">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -5433,7 +5433,7 @@
         <v>124.5</v>
       </c>
       <c r="B126">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -5441,7 +5441,7 @@
         <v>125.5</v>
       </c>
       <c r="B127">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -5457,7 +5457,7 @@
         <v>127.5</v>
       </c>
       <c r="B129">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5489,7 +5489,7 @@
         <v>131.5</v>
       </c>
       <c r="B133">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -5521,7 +5521,7 @@
         <v>135.5</v>
       </c>
       <c r="B137">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -5545,7 +5545,7 @@
         <v>138.5</v>
       </c>
       <c r="B140">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -5553,7 +5553,7 @@
         <v>139.5</v>
       </c>
       <c r="B141">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -5569,7 +5569,7 @@
         <v>141.5</v>
       </c>
       <c r="B143">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -5609,7 +5609,7 @@
         <v>146.5</v>
       </c>
       <c r="B148">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5625,7 +5625,7 @@
         <v>148.5</v>
       </c>
       <c r="B150">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5673,7 +5673,7 @@
         <v>154.5</v>
       </c>
       <c r="B156">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5689,7 +5689,7 @@
         <v>156.5</v>
       </c>
       <c r="B158">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5713,7 +5713,7 @@
         <v>159.5</v>
       </c>
       <c r="B161">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5745,7 +5745,7 @@
         <v>163.5</v>
       </c>
       <c r="B165">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5761,7 +5761,7 @@
         <v>165.5</v>
       </c>
       <c r="B167">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5769,7 +5769,7 @@
         <v>166.5</v>
       </c>
       <c r="B168">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5785,7 +5785,7 @@
         <v>168.5</v>
       </c>
       <c r="B170">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5801,7 +5801,7 @@
         <v>170.5</v>
       </c>
       <c r="B172">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5857,7 +5857,7 @@
         <v>177.5</v>
       </c>
       <c r="B179">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -5897,7 +5897,7 @@
         <v>182.5</v>
       </c>
       <c r="B184">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -6001,7 +6001,7 @@
         <v>195.5</v>
       </c>
       <c r="B197">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -6025,7 +6025,7 @@
         <v>198.5</v>
       </c>
       <c r="B200">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -6049,7 +6049,7 @@
         <v>201.5</v>
       </c>
       <c r="B203">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -6065,7 +6065,7 @@
         <v>203.5</v>
       </c>
       <c r="B205">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -6073,7 +6073,7 @@
         <v>204.5</v>
       </c>
       <c r="B206">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -6081,7 +6081,7 @@
         <v>205.5</v>
       </c>
       <c r="B207">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -6089,7 +6089,7 @@
         <v>206.5</v>
       </c>
       <c r="B208">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -6113,7 +6113,7 @@
         <v>209.5</v>
       </c>
       <c r="B211">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -6121,7 +6121,7 @@
         <v>210.5</v>
       </c>
       <c r="B212">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -6129,7 +6129,7 @@
         <v>211.5</v>
       </c>
       <c r="B213">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -6137,7 +6137,7 @@
         <v>212.5</v>
       </c>
       <c r="B214">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -6177,7 +6177,7 @@
         <v>217.5</v>
       </c>
       <c r="B219">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -6193,7 +6193,7 @@
         <v>219.5</v>
       </c>
       <c r="B221">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -6225,7 +6225,7 @@
         <v>223.5</v>
       </c>
       <c r="B225">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -6233,7 +6233,7 @@
         <v>224.5</v>
       </c>
       <c r="B226">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -6273,7 +6273,7 @@
         <v>229.5</v>
       </c>
       <c r="B231">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -6281,7 +6281,7 @@
         <v>230.5</v>
       </c>
       <c r="B232">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -6289,7 +6289,7 @@
         <v>231.5</v>
       </c>
       <c r="B233">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -6305,7 +6305,7 @@
         <v>233.5</v>
       </c>
       <c r="B235">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -6321,7 +6321,7 @@
         <v>235.5</v>
       </c>
       <c r="B237">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -6337,7 +6337,7 @@
         <v>237.5</v>
       </c>
       <c r="B239">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -6353,7 +6353,7 @@
         <v>239.5</v>
       </c>
       <c r="B241">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -6361,7 +6361,7 @@
         <v>240.5</v>
       </c>
       <c r="B242">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -6377,7 +6377,7 @@
         <v>242.5</v>
       </c>
       <c r="B244">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -6385,7 +6385,7 @@
         <v>243.5</v>
       </c>
       <c r="B245">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -6393,7 +6393,7 @@
         <v>244.5</v>
       </c>
       <c r="B246">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -6409,7 +6409,7 @@
         <v>246.5</v>
       </c>
       <c r="B248">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -6417,7 +6417,7 @@
         <v>247.5</v>
       </c>
       <c r="B249">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -6441,7 +6441,7 @@
         <v>250.5</v>
       </c>
       <c r="B252">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -6529,7 +6529,7 @@
         <v>261.5</v>
       </c>
       <c r="B263">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -6537,7 +6537,7 @@
         <v>262.5</v>
       </c>
       <c r="B264">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -6577,7 +6577,7 @@
         <v>267.5</v>
       </c>
       <c r="B269">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -6585,7 +6585,7 @@
         <v>268.5</v>
       </c>
       <c r="B270">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -6593,7 +6593,7 @@
         <v>269.5</v>
       </c>
       <c r="B271">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -6625,7 +6625,7 @@
         <v>273.5</v>
       </c>
       <c r="B275">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -6641,7 +6641,7 @@
         <v>275.5</v>
       </c>
       <c r="B277">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -6649,7 +6649,7 @@
         <v>276.5</v>
       </c>
       <c r="B278">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -6665,7 +6665,7 @@
         <v>278.5</v>
       </c>
       <c r="B280">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -6681,7 +6681,7 @@
         <v>280.5</v>
       </c>
       <c r="B282">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -6705,7 +6705,7 @@
         <v>283.5</v>
       </c>
       <c r="B285">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -6713,7 +6713,7 @@
         <v>284.5</v>
       </c>
       <c r="B286">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -6753,7 +6753,7 @@
         <v>289.5</v>
       </c>
       <c r="B291">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -6785,7 +6785,7 @@
         <v>293.5</v>
       </c>
       <c r="B295">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -6793,7 +6793,7 @@
         <v>294.5</v>
       </c>
       <c r="B296">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -6801,7 +6801,7 @@
         <v>295.5</v>
       </c>
       <c r="B297">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -6825,7 +6825,7 @@
         <v>298.5</v>
       </c>
       <c r="B300">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -6833,7 +6833,7 @@
         <v>299.5</v>
       </c>
       <c r="B301">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -6841,7 +6841,7 @@
         <v>300.5</v>
       </c>
       <c r="B302">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -6849,7 +6849,7 @@
         <v>301.5</v>
       </c>
       <c r="B303">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -6857,7 +6857,7 @@
         <v>302.5</v>
       </c>
       <c r="B304">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -6873,7 +6873,7 @@
         <v>304.5</v>
       </c>
       <c r="B306">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -6881,7 +6881,7 @@
         <v>305.5</v>
       </c>
       <c r="B307">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -6889,7 +6889,7 @@
         <v>306.5</v>
       </c>
       <c r="B308">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -6897,7 +6897,7 @@
         <v>307.5</v>
       </c>
       <c r="B309">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -6945,7 +6945,7 @@
         <v>313.5</v>
       </c>
       <c r="B315">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -6977,7 +6977,7 @@
         <v>317.5</v>
       </c>
       <c r="B319">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -6985,7 +6985,7 @@
         <v>318.5</v>
       </c>
       <c r="B320">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -6993,7 +6993,7 @@
         <v>319.5</v>
       </c>
       <c r="B321">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -7017,7 +7017,7 @@
         <v>322.5</v>
       </c>
       <c r="B324">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -7041,7 +7041,7 @@
         <v>325.5</v>
       </c>
       <c r="B327">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -7049,7 +7049,7 @@
         <v>326.5</v>
       </c>
       <c r="B328">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -7057,7 +7057,7 @@
         <v>327.5</v>
       </c>
       <c r="B329">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -7081,7 +7081,7 @@
         <v>330.5</v>
       </c>
       <c r="B332">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -7089,7 +7089,7 @@
         <v>331.5</v>
       </c>
       <c r="B333">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -7097,7 +7097,7 @@
         <v>332.5</v>
       </c>
       <c r="B334">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -7137,7 +7137,7 @@
         <v>337.5</v>
       </c>
       <c r="B339">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -7161,7 +7161,7 @@
         <v>340.5</v>
       </c>
       <c r="B342">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -7193,7 +7193,7 @@
         <v>344.5</v>
       </c>
       <c r="B346">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -7209,7 +7209,7 @@
         <v>346.5</v>
       </c>
       <c r="B348">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -7217,7 +7217,7 @@
         <v>347.5</v>
       </c>
       <c r="B349">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -7233,7 +7233,7 @@
         <v>349.5</v>
       </c>
       <c r="B351">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -7257,7 +7257,7 @@
         <v>352.5</v>
       </c>
       <c r="B354">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -7265,7 +7265,7 @@
         <v>353.5</v>
       </c>
       <c r="B355">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -7281,7 +7281,7 @@
         <v>355.5</v>
       </c>
       <c r="B357">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -7289,7 +7289,7 @@
         <v>356.5</v>
       </c>
       <c r="B358">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -7313,7 +7313,7 @@
         <v>359.5</v>
       </c>
       <c r="B361">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -7321,7 +7321,7 @@
         <v>360.5</v>
       </c>
       <c r="B362">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -7329,7 +7329,7 @@
         <v>361.5</v>
       </c>
       <c r="B363">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -7337,7 +7337,7 @@
         <v>362.5</v>
       </c>
       <c r="B364">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -7361,7 +7361,7 @@
         <v>365.5</v>
       </c>
       <c r="B367">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -7393,7 +7393,7 @@
         <v>369.5</v>
       </c>
       <c r="B371">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -7401,7 +7401,7 @@
         <v>370.5</v>
       </c>
       <c r="B372">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -7417,7 +7417,7 @@
         <v>372.5</v>
       </c>
       <c r="B374">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -7433,7 +7433,7 @@
         <v>374.5</v>
       </c>
       <c r="B376">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -7465,7 +7465,7 @@
         <v>378.5</v>
       </c>
       <c r="B380">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -7473,7 +7473,7 @@
         <v>379.5</v>
       </c>
       <c r="B381">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -7489,7 +7489,7 @@
         <v>381.5</v>
       </c>
       <c r="B383">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -7497,7 +7497,7 @@
         <v>382.5</v>
       </c>
       <c r="B384">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -7521,7 +7521,7 @@
         <v>385.5</v>
       </c>
       <c r="B387">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -7561,7 +7561,7 @@
         <v>390.5</v>
       </c>
       <c r="B392">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -7601,7 +7601,7 @@
         <v>395.5</v>
       </c>
       <c r="B397">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -7625,7 +7625,7 @@
         <v>398.5</v>
       </c>
       <c r="B400">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -7633,7 +7633,7 @@
         <v>399.5</v>
       </c>
       <c r="B401">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -7665,7 +7665,7 @@
         <v>403.5</v>
       </c>
       <c r="B405">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -7673,7 +7673,7 @@
         <v>404.5</v>
       </c>
       <c r="B406">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -7689,7 +7689,7 @@
         <v>406.5</v>
       </c>
       <c r="B408">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -7697,7 +7697,7 @@
         <v>407.5</v>
       </c>
       <c r="B409">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -7713,7 +7713,7 @@
         <v>409.5</v>
       </c>
       <c r="B411">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -7729,7 +7729,7 @@
         <v>411.5</v>
       </c>
       <c r="B413">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -7753,7 +7753,7 @@
         <v>414.5</v>
       </c>
       <c r="B416">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -7761,7 +7761,7 @@
         <v>415.5</v>
       </c>
       <c r="B417">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -7785,7 +7785,7 @@
         <v>418.5</v>
       </c>
       <c r="B420">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -7793,7 +7793,7 @@
         <v>419.5</v>
       </c>
       <c r="B421">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -7833,7 +7833,7 @@
         <v>424.5</v>
       </c>
       <c r="B426">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -7873,7 +7873,7 @@
         <v>429.5</v>
       </c>
       <c r="B431">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -7905,7 +7905,7 @@
         <v>433.5</v>
       </c>
       <c r="B435">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -7913,7 +7913,7 @@
         <v>434.5</v>
       </c>
       <c r="B436">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -7929,7 +7929,7 @@
         <v>436.5</v>
       </c>
       <c r="B438">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -7937,7 +7937,7 @@
         <v>437.5</v>
       </c>
       <c r="B439">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -7961,7 +7961,7 @@
         <v>440.5</v>
       </c>
       <c r="B442">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -7977,7 +7977,7 @@
         <v>442.5</v>
       </c>
       <c r="B444">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -7985,7 +7985,7 @@
         <v>443.5</v>
       </c>
       <c r="B445">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -7993,7 +7993,7 @@
         <v>444.5</v>
       </c>
       <c r="B446">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -8009,7 +8009,7 @@
         <v>446.5</v>
       </c>
       <c r="B448">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -8041,7 +8041,7 @@
         <v>450.5</v>
       </c>
       <c r="B452">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -8073,7 +8073,7 @@
         <v>454.5</v>
       </c>
       <c r="B456">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -8081,7 +8081,7 @@
         <v>455.5</v>
       </c>
       <c r="B457">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -8089,7 +8089,7 @@
         <v>456.5</v>
       </c>
       <c r="B458">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -8169,7 +8169,7 @@
         <v>466.5</v>
       </c>
       <c r="B468">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -8209,7 +8209,7 @@
         <v>471.5</v>
       </c>
       <c r="B473">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -8225,7 +8225,7 @@
         <v>473.5</v>
       </c>
       <c r="B475">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -8249,7 +8249,7 @@
         <v>476.5</v>
       </c>
       <c r="B478">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -8257,7 +8257,7 @@
         <v>477.5</v>
       </c>
       <c r="B479">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -8265,7 +8265,7 @@
         <v>478.5</v>
       </c>
       <c r="B480">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -8273,7 +8273,7 @@
         <v>479.5</v>
       </c>
       <c r="B481">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -8281,7 +8281,7 @@
         <v>480.5</v>
       </c>
       <c r="B482">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -8297,7 +8297,7 @@
         <v>482.5</v>
       </c>
       <c r="B484">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -8313,7 +8313,7 @@
         <v>484.5</v>
       </c>
       <c r="B486">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -8337,7 +8337,7 @@
         <v>487.5</v>
       </c>
       <c r="B489">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -8417,7 +8417,7 @@
         <v>497.5</v>
       </c>
       <c r="B499">
-        <v>0.014999999999999925</v>
+        <v>0.014999999999999927</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -16016,7 +16016,7 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>-0.014999999999999927</v>
+        <v>-0.014999999999999939</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -16048,7 +16048,7 @@
         <v>4.5</v>
       </c>
       <c r="B6">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -16056,7 +16056,7 @@
         <v>5.5</v>
       </c>
       <c r="B7">
-        <v>-0.014999999999999927</v>
+        <v>-0.014999999999999925</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -16064,7 +16064,7 @@
         <v>6.5</v>
       </c>
       <c r="B8">
-        <v>-0.014999999999999927</v>
+        <v>-0.014999999999999925</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -16072,7 +16072,7 @@
         <v>7.5</v>
       </c>
       <c r="B9">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -16160,7 +16160,7 @@
         <v>18.5</v>
       </c>
       <c r="B20">
-        <v>-0.014999999999999927</v>
+        <v>-0.014999999999999925</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -16184,7 +16184,7 @@
         <v>21.5</v>
       </c>
       <c r="B23">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -16224,7 +16224,7 @@
         <v>26.5</v>
       </c>
       <c r="B28">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -16232,7 +16232,7 @@
         <v>27.5</v>
       </c>
       <c r="B29">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -16240,7 +16240,7 @@
         <v>28.5</v>
       </c>
       <c r="B30">
-        <v>-0.014999999999999927</v>
+        <v>-0.014999999999999925</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -16256,7 +16256,7 @@
         <v>30.5</v>
       </c>
       <c r="B32">
-        <v>-0.014999999999999927</v>
+        <v>-0.014999999999999925</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -16272,7 +16272,7 @@
         <v>32.5</v>
       </c>
       <c r="B34">
-        <v>-0.014999999999999927</v>
+        <v>-0.014999999999999925</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -16280,7 +16280,7 @@
         <v>33.5</v>
       </c>
       <c r="B35">
-        <v>-0.014999999999999927</v>
+        <v>-0.014999999999999925</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -16288,7 +16288,7 @@
         <v>34.5</v>
       </c>
       <c r="B36">
-        <v>-0.014999999999999927</v>
+        <v>-0.014999999999999925</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -16296,7 +16296,7 @@
         <v>35.5</v>
       </c>
       <c r="B37">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -16304,7 +16304,7 @@
         <v>36.5</v>
       </c>
       <c r="B38">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -16312,7 +16312,7 @@
         <v>37.5</v>
       </c>
       <c r="B39">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -16320,7 +16320,7 @@
         <v>38.5</v>
       </c>
       <c r="B40">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -16328,7 +16328,7 @@
         <v>39.5</v>
       </c>
       <c r="B41">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -16352,7 +16352,7 @@
         <v>42.5</v>
       </c>
       <c r="B44">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -16368,7 +16368,7 @@
         <v>44.5</v>
       </c>
       <c r="B46">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -16376,7 +16376,7 @@
         <v>45.5</v>
       </c>
       <c r="B47">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -16400,7 +16400,7 @@
         <v>48.5</v>
       </c>
       <c r="B50">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -16408,7 +16408,7 @@
         <v>49.5</v>
       </c>
       <c r="B51">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -16440,7 +16440,7 @@
         <v>53.5</v>
       </c>
       <c r="B55">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -16448,7 +16448,7 @@
         <v>54.5</v>
       </c>
       <c r="B56">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -16480,7 +16480,7 @@
         <v>58.5</v>
       </c>
       <c r="B60">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -16504,7 +16504,7 @@
         <v>61.5</v>
       </c>
       <c r="B63">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -16536,7 +16536,7 @@
         <v>65.5</v>
       </c>
       <c r="B67">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -16544,7 +16544,7 @@
         <v>66.5</v>
       </c>
       <c r="B68">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -16576,7 +16576,7 @@
         <v>70.5</v>
       </c>
       <c r="B72">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -16592,7 +16592,7 @@
         <v>72.5</v>
       </c>
       <c r="B74">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -16600,7 +16600,7 @@
         <v>73.5</v>
       </c>
       <c r="B75">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -16608,7 +16608,7 @@
         <v>74.5</v>
       </c>
       <c r="B76">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -16632,7 +16632,7 @@
         <v>77.5</v>
       </c>
       <c r="B79">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -16640,7 +16640,7 @@
         <v>78.5</v>
       </c>
       <c r="B80">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -16656,7 +16656,7 @@
         <v>80.5</v>
       </c>
       <c r="B82">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -16672,7 +16672,7 @@
         <v>82.5</v>
       </c>
       <c r="B84">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -16696,7 +16696,7 @@
         <v>85.5</v>
       </c>
       <c r="B87">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -16704,7 +16704,7 @@
         <v>86.5</v>
       </c>
       <c r="B88">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -16712,7 +16712,7 @@
         <v>87.5</v>
       </c>
       <c r="B89">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -16760,7 +16760,7 @@
         <v>93.5</v>
       </c>
       <c r="B95">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -16768,7 +16768,7 @@
         <v>94.5</v>
       </c>
       <c r="B96">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -16792,7 +16792,7 @@
         <v>97.5</v>
       </c>
       <c r="B99">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -16840,7 +16840,7 @@
         <v>103.5</v>
       </c>
       <c r="B105">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -16872,7 +16872,7 @@
         <v>107.5</v>
       </c>
       <c r="B109">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -16880,7 +16880,7 @@
         <v>108.5</v>
       </c>
       <c r="B110">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -16888,7 +16888,7 @@
         <v>109.5</v>
       </c>
       <c r="B111">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -16912,7 +16912,7 @@
         <v>112.5</v>
       </c>
       <c r="B114">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -16920,7 +16920,7 @@
         <v>113.5</v>
       </c>
       <c r="B115">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -16936,7 +16936,7 @@
         <v>115.5</v>
       </c>
       <c r="B117">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -16944,7 +16944,7 @@
         <v>116.5</v>
       </c>
       <c r="B118">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -16968,7 +16968,7 @@
         <v>119.5</v>
       </c>
       <c r="B121">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -16976,7 +16976,7 @@
         <v>120.5</v>
       </c>
       <c r="B122">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -16992,7 +16992,7 @@
         <v>122.5</v>
       </c>
       <c r="B124">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -17000,7 +17000,7 @@
         <v>123.5</v>
       </c>
       <c r="B125">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -17008,7 +17008,7 @@
         <v>124.5</v>
       </c>
       <c r="B126">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -17016,7 +17016,7 @@
         <v>125.5</v>
       </c>
       <c r="B127">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -17032,7 +17032,7 @@
         <v>127.5</v>
       </c>
       <c r="B129">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -17064,7 +17064,7 @@
         <v>131.5</v>
       </c>
       <c r="B133">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -17096,7 +17096,7 @@
         <v>135.5</v>
       </c>
       <c r="B137">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -17120,7 +17120,7 @@
         <v>138.5</v>
       </c>
       <c r="B140">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -17128,7 +17128,7 @@
         <v>139.5</v>
       </c>
       <c r="B141">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -17144,7 +17144,7 @@
         <v>141.5</v>
       </c>
       <c r="B143">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -17184,7 +17184,7 @@
         <v>146.5</v>
       </c>
       <c r="B148">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -17200,7 +17200,7 @@
         <v>148.5</v>
       </c>
       <c r="B150">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -17248,7 +17248,7 @@
         <v>154.5</v>
       </c>
       <c r="B156">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -17264,7 +17264,7 @@
         <v>156.5</v>
       </c>
       <c r="B158">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -17288,7 +17288,7 @@
         <v>159.5</v>
       </c>
       <c r="B161">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -17320,7 +17320,7 @@
         <v>163.5</v>
       </c>
       <c r="B165">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -17336,7 +17336,7 @@
         <v>165.5</v>
       </c>
       <c r="B167">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -17344,7 +17344,7 @@
         <v>166.5</v>
       </c>
       <c r="B168">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -17360,7 +17360,7 @@
         <v>168.5</v>
       </c>
       <c r="B170">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -17376,7 +17376,7 @@
         <v>170.5</v>
       </c>
       <c r="B172">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -17432,7 +17432,7 @@
         <v>177.5</v>
       </c>
       <c r="B179">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -17472,7 +17472,7 @@
         <v>182.5</v>
       </c>
       <c r="B184">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -17576,7 +17576,7 @@
         <v>195.5</v>
       </c>
       <c r="B197">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -17600,7 +17600,7 @@
         <v>198.5</v>
       </c>
       <c r="B200">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -17624,7 +17624,7 @@
         <v>201.5</v>
       </c>
       <c r="B203">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -17640,7 +17640,7 @@
         <v>203.5</v>
       </c>
       <c r="B205">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -17648,7 +17648,7 @@
         <v>204.5</v>
       </c>
       <c r="B206">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -17656,7 +17656,7 @@
         <v>205.5</v>
       </c>
       <c r="B207">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -17664,7 +17664,7 @@
         <v>206.5</v>
       </c>
       <c r="B208">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -17688,7 +17688,7 @@
         <v>209.5</v>
       </c>
       <c r="B211">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -17696,7 +17696,7 @@
         <v>210.5</v>
       </c>
       <c r="B212">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -17704,7 +17704,7 @@
         <v>211.5</v>
       </c>
       <c r="B213">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -17712,7 +17712,7 @@
         <v>212.5</v>
       </c>
       <c r="B214">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -17752,7 +17752,7 @@
         <v>217.5</v>
       </c>
       <c r="B219">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -17768,7 +17768,7 @@
         <v>219.5</v>
       </c>
       <c r="B221">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -17800,7 +17800,7 @@
         <v>223.5</v>
       </c>
       <c r="B225">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -17808,7 +17808,7 @@
         <v>224.5</v>
       </c>
       <c r="B226">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -17848,7 +17848,7 @@
         <v>229.5</v>
       </c>
       <c r="B231">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -17856,7 +17856,7 @@
         <v>230.5</v>
       </c>
       <c r="B232">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -17864,7 +17864,7 @@
         <v>231.5</v>
       </c>
       <c r="B233">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -17880,7 +17880,7 @@
         <v>233.5</v>
       </c>
       <c r="B235">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -17896,7 +17896,7 @@
         <v>235.5</v>
       </c>
       <c r="B237">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -17912,7 +17912,7 @@
         <v>237.5</v>
       </c>
       <c r="B239">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -17928,7 +17928,7 @@
         <v>239.5</v>
       </c>
       <c r="B241">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -17936,7 +17936,7 @@
         <v>240.5</v>
       </c>
       <c r="B242">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -17952,7 +17952,7 @@
         <v>242.5</v>
       </c>
       <c r="B244">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -17960,7 +17960,7 @@
         <v>243.5</v>
       </c>
       <c r="B245">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -17968,7 +17968,7 @@
         <v>244.5</v>
       </c>
       <c r="B246">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -17984,7 +17984,7 @@
         <v>246.5</v>
       </c>
       <c r="B248">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -17992,7 +17992,7 @@
         <v>247.5</v>
       </c>
       <c r="B249">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -18016,7 +18016,7 @@
         <v>250.5</v>
       </c>
       <c r="B252">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -18104,7 +18104,7 @@
         <v>261.5</v>
       </c>
       <c r="B263">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -18112,7 +18112,7 @@
         <v>262.5</v>
       </c>
       <c r="B264">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -18152,7 +18152,7 @@
         <v>267.5</v>
       </c>
       <c r="B269">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -18160,7 +18160,7 @@
         <v>268.5</v>
       </c>
       <c r="B270">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -18168,7 +18168,7 @@
         <v>269.5</v>
       </c>
       <c r="B271">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -18200,7 +18200,7 @@
         <v>273.5</v>
       </c>
       <c r="B275">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -18216,7 +18216,7 @@
         <v>275.5</v>
       </c>
       <c r="B277">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -18224,7 +18224,7 @@
         <v>276.5</v>
       </c>
       <c r="B278">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -18240,7 +18240,7 @@
         <v>278.5</v>
       </c>
       <c r="B280">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -18256,7 +18256,7 @@
         <v>280.5</v>
       </c>
       <c r="B282">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -18280,7 +18280,7 @@
         <v>283.5</v>
       </c>
       <c r="B285">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -18288,7 +18288,7 @@
         <v>284.5</v>
       </c>
       <c r="B286">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -18328,7 +18328,7 @@
         <v>289.5</v>
       </c>
       <c r="B291">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -18360,7 +18360,7 @@
         <v>293.5</v>
       </c>
       <c r="B295">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -18368,7 +18368,7 @@
         <v>294.5</v>
       </c>
       <c r="B296">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -18376,7 +18376,7 @@
         <v>295.5</v>
       </c>
       <c r="B297">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -18400,7 +18400,7 @@
         <v>298.5</v>
       </c>
       <c r="B300">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -18408,7 +18408,7 @@
         <v>299.5</v>
       </c>
       <c r="B301">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -18416,7 +18416,7 @@
         <v>300.5</v>
       </c>
       <c r="B302">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -18424,7 +18424,7 @@
         <v>301.5</v>
       </c>
       <c r="B303">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -18432,7 +18432,7 @@
         <v>302.5</v>
       </c>
       <c r="B304">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -18448,7 +18448,7 @@
         <v>304.5</v>
       </c>
       <c r="B306">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -18456,7 +18456,7 @@
         <v>305.5</v>
       </c>
       <c r="B307">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -18464,7 +18464,7 @@
         <v>306.5</v>
       </c>
       <c r="B308">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -18472,7 +18472,7 @@
         <v>307.5</v>
       </c>
       <c r="B309">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -18520,7 +18520,7 @@
         <v>313.5</v>
       </c>
       <c r="B315">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -18552,7 +18552,7 @@
         <v>317.5</v>
       </c>
       <c r="B319">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -18560,7 +18560,7 @@
         <v>318.5</v>
       </c>
       <c r="B320">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -18568,7 +18568,7 @@
         <v>319.5</v>
       </c>
       <c r="B321">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -18592,7 +18592,7 @@
         <v>322.5</v>
       </c>
       <c r="B324">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -18616,7 +18616,7 @@
         <v>325.5</v>
       </c>
       <c r="B327">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -18624,7 +18624,7 @@
         <v>326.5</v>
       </c>
       <c r="B328">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -18632,7 +18632,7 @@
         <v>327.5</v>
       </c>
       <c r="B329">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -18656,7 +18656,7 @@
         <v>330.5</v>
       </c>
       <c r="B332">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -18664,7 +18664,7 @@
         <v>331.5</v>
       </c>
       <c r="B333">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -18672,7 +18672,7 @@
         <v>332.5</v>
       </c>
       <c r="B334">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -18712,7 +18712,7 @@
         <v>337.5</v>
       </c>
       <c r="B339">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -18736,7 +18736,7 @@
         <v>340.5</v>
       </c>
       <c r="B342">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -18768,7 +18768,7 @@
         <v>344.5</v>
       </c>
       <c r="B346">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -18784,7 +18784,7 @@
         <v>346.5</v>
       </c>
       <c r="B348">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -18792,7 +18792,7 @@
         <v>347.5</v>
       </c>
       <c r="B349">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -18808,7 +18808,7 @@
         <v>349.5</v>
       </c>
       <c r="B351">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -18832,7 +18832,7 @@
         <v>352.5</v>
       </c>
       <c r="B354">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -18840,7 +18840,7 @@
         <v>353.5</v>
       </c>
       <c r="B355">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -18856,7 +18856,7 @@
         <v>355.5</v>
       </c>
       <c r="B357">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -18864,7 +18864,7 @@
         <v>356.5</v>
       </c>
       <c r="B358">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -18888,7 +18888,7 @@
         <v>359.5</v>
       </c>
       <c r="B361">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -18896,7 +18896,7 @@
         <v>360.5</v>
       </c>
       <c r="B362">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -18904,7 +18904,7 @@
         <v>361.5</v>
       </c>
       <c r="B363">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -18912,7 +18912,7 @@
         <v>362.5</v>
       </c>
       <c r="B364">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -18936,7 +18936,7 @@
         <v>365.5</v>
       </c>
       <c r="B367">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -18968,7 +18968,7 @@
         <v>369.5</v>
       </c>
       <c r="B371">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -18976,7 +18976,7 @@
         <v>370.5</v>
       </c>
       <c r="B372">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -18992,7 +18992,7 @@
         <v>372.5</v>
       </c>
       <c r="B374">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -19008,7 +19008,7 @@
         <v>374.5</v>
       </c>
       <c r="B376">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -19040,7 +19040,7 @@
         <v>378.5</v>
       </c>
       <c r="B380">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -19048,7 +19048,7 @@
         <v>379.5</v>
       </c>
       <c r="B381">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -19064,7 +19064,7 @@
         <v>381.5</v>
       </c>
       <c r="B383">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -19072,7 +19072,7 @@
         <v>382.5</v>
       </c>
       <c r="B384">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -19096,7 +19096,7 @@
         <v>385.5</v>
       </c>
       <c r="B387">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -19136,7 +19136,7 @@
         <v>390.5</v>
       </c>
       <c r="B392">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -19176,7 +19176,7 @@
         <v>395.5</v>
       </c>
       <c r="B397">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -19200,7 +19200,7 @@
         <v>398.5</v>
       </c>
       <c r="B400">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -19208,7 +19208,7 @@
         <v>399.5</v>
       </c>
       <c r="B401">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -19240,7 +19240,7 @@
         <v>403.5</v>
       </c>
       <c r="B405">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -19248,7 +19248,7 @@
         <v>404.5</v>
       </c>
       <c r="B406">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -19264,7 +19264,7 @@
         <v>406.5</v>
       </c>
       <c r="B408">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -19272,7 +19272,7 @@
         <v>407.5</v>
       </c>
       <c r="B409">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -19288,7 +19288,7 @@
         <v>409.5</v>
       </c>
       <c r="B411">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -19304,7 +19304,7 @@
         <v>411.5</v>
       </c>
       <c r="B413">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -19328,7 +19328,7 @@
         <v>414.5</v>
       </c>
       <c r="B416">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -19336,7 +19336,7 @@
         <v>415.5</v>
       </c>
       <c r="B417">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -19360,7 +19360,7 @@
         <v>418.5</v>
       </c>
       <c r="B420">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -19368,7 +19368,7 @@
         <v>419.5</v>
       </c>
       <c r="B421">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -19408,7 +19408,7 @@
         <v>424.5</v>
       </c>
       <c r="B426">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -19448,7 +19448,7 @@
         <v>429.5</v>
       </c>
       <c r="B431">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -19480,7 +19480,7 @@
         <v>433.5</v>
       </c>
       <c r="B435">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -19488,7 +19488,7 @@
         <v>434.5</v>
       </c>
       <c r="B436">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -19504,7 +19504,7 @@
         <v>436.5</v>
       </c>
       <c r="B438">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -19512,7 +19512,7 @@
         <v>437.5</v>
       </c>
       <c r="B439">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -19536,7 +19536,7 @@
         <v>440.5</v>
       </c>
       <c r="B442">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -19552,7 +19552,7 @@
         <v>442.5</v>
       </c>
       <c r="B444">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -19560,7 +19560,7 @@
         <v>443.5</v>
       </c>
       <c r="B445">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -19568,7 +19568,7 @@
         <v>444.5</v>
       </c>
       <c r="B446">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -19584,7 +19584,7 @@
         <v>446.5</v>
       </c>
       <c r="B448">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -19616,7 +19616,7 @@
         <v>450.5</v>
       </c>
       <c r="B452">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -19648,7 +19648,7 @@
         <v>454.5</v>
       </c>
       <c r="B456">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -19656,7 +19656,7 @@
         <v>455.5</v>
       </c>
       <c r="B457">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -19664,7 +19664,7 @@
         <v>456.5</v>
       </c>
       <c r="B458">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -19744,7 +19744,7 @@
         <v>466.5</v>
       </c>
       <c r="B468">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -19784,7 +19784,7 @@
         <v>471.5</v>
       </c>
       <c r="B473">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -19800,7 +19800,7 @@
         <v>473.5</v>
       </c>
       <c r="B475">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -19824,7 +19824,7 @@
         <v>476.5</v>
       </c>
       <c r="B478">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -19832,7 +19832,7 @@
         <v>477.5</v>
       </c>
       <c r="B479">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -19840,7 +19840,7 @@
         <v>478.5</v>
       </c>
       <c r="B480">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -19848,7 +19848,7 @@
         <v>479.5</v>
       </c>
       <c r="B481">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -19856,7 +19856,7 @@
         <v>480.5</v>
       </c>
       <c r="B482">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -19872,7 +19872,7 @@
         <v>482.5</v>
       </c>
       <c r="B484">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -19888,7 +19888,7 @@
         <v>484.5</v>
       </c>
       <c r="B486">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -19912,7 +19912,7 @@
         <v>487.5</v>
       </c>
       <c r="B489">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -19992,7 +19992,7 @@
         <v>497.5</v>
       </c>
       <c r="B499">
-        <v>-0.014999999999999925</v>
+        <v>-0.014999999999999927</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -20037,7 +20037,7 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.3846153846153777</v>
+        <v>1.3846153846153788</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -20069,7 +20069,7 @@
         <v>4.5</v>
       </c>
       <c r="B6">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -20077,7 +20077,7 @@
         <v>5.5</v>
       </c>
       <c r="B7">
-        <v>1.3846153846153777</v>
+        <v>1.3846153846153775</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -20085,7 +20085,7 @@
         <v>6.5</v>
       </c>
       <c r="B8">
-        <v>1.3846153846153777</v>
+        <v>1.3846153846153775</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -20093,7 +20093,7 @@
         <v>7.5</v>
       </c>
       <c r="B9">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -20181,7 +20181,7 @@
         <v>18.5</v>
       </c>
       <c r="B20">
-        <v>1.3846153846153777</v>
+        <v>1.3846153846153775</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -20205,7 +20205,7 @@
         <v>21.5</v>
       </c>
       <c r="B23">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -20245,7 +20245,7 @@
         <v>26.5</v>
       </c>
       <c r="B28">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -20253,7 +20253,7 @@
         <v>27.5</v>
       </c>
       <c r="B29">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -20261,7 +20261,7 @@
         <v>28.5</v>
       </c>
       <c r="B30">
-        <v>1.3846153846153777</v>
+        <v>1.3846153846153775</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -20277,7 +20277,7 @@
         <v>30.5</v>
       </c>
       <c r="B32">
-        <v>1.3846153846153777</v>
+        <v>1.3846153846153775</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -20293,7 +20293,7 @@
         <v>32.5</v>
       </c>
       <c r="B34">
-        <v>1.3846153846153777</v>
+        <v>1.3846153846153775</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -20301,7 +20301,7 @@
         <v>33.5</v>
       </c>
       <c r="B35">
-        <v>1.3846153846153777</v>
+        <v>1.3846153846153775</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -20309,7 +20309,7 @@
         <v>34.5</v>
       </c>
       <c r="B36">
-        <v>1.3846153846153777</v>
+        <v>1.3846153846153775</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -20317,7 +20317,7 @@
         <v>35.5</v>
       </c>
       <c r="B37">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -20325,7 +20325,7 @@
         <v>36.5</v>
       </c>
       <c r="B38">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -20333,7 +20333,7 @@
         <v>37.5</v>
       </c>
       <c r="B39">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -20341,7 +20341,7 @@
         <v>38.5</v>
       </c>
       <c r="B40">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -20349,7 +20349,7 @@
         <v>39.5</v>
       </c>
       <c r="B41">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -20373,7 +20373,7 @@
         <v>42.5</v>
       </c>
       <c r="B44">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -20389,7 +20389,7 @@
         <v>44.5</v>
       </c>
       <c r="B46">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -20397,7 +20397,7 @@
         <v>45.5</v>
       </c>
       <c r="B47">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -20421,7 +20421,7 @@
         <v>48.5</v>
       </c>
       <c r="B50">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -20429,7 +20429,7 @@
         <v>49.5</v>
       </c>
       <c r="B51">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -20461,7 +20461,7 @@
         <v>53.5</v>
       </c>
       <c r="B55">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -20469,7 +20469,7 @@
         <v>54.5</v>
       </c>
       <c r="B56">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -20501,7 +20501,7 @@
         <v>58.5</v>
       </c>
       <c r="B60">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -20525,7 +20525,7 @@
         <v>61.5</v>
       </c>
       <c r="B63">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -20557,7 +20557,7 @@
         <v>65.5</v>
       </c>
       <c r="B67">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -20565,7 +20565,7 @@
         <v>66.5</v>
       </c>
       <c r="B68">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -20597,7 +20597,7 @@
         <v>70.5</v>
       </c>
       <c r="B72">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -20613,7 +20613,7 @@
         <v>72.5</v>
       </c>
       <c r="B74">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -20621,7 +20621,7 @@
         <v>73.5</v>
       </c>
       <c r="B75">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -20629,7 +20629,7 @@
         <v>74.5</v>
       </c>
       <c r="B76">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -20653,7 +20653,7 @@
         <v>77.5</v>
       </c>
       <c r="B79">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -20661,7 +20661,7 @@
         <v>78.5</v>
       </c>
       <c r="B80">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -20677,7 +20677,7 @@
         <v>80.5</v>
       </c>
       <c r="B82">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -20693,7 +20693,7 @@
         <v>82.5</v>
       </c>
       <c r="B84">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -20717,7 +20717,7 @@
         <v>85.5</v>
       </c>
       <c r="B87">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -20725,7 +20725,7 @@
         <v>86.5</v>
       </c>
       <c r="B88">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -20733,7 +20733,7 @@
         <v>87.5</v>
       </c>
       <c r="B89">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -20781,7 +20781,7 @@
         <v>93.5</v>
       </c>
       <c r="B95">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -20789,7 +20789,7 @@
         <v>94.5</v>
       </c>
       <c r="B96">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -20813,7 +20813,7 @@
         <v>97.5</v>
       </c>
       <c r="B99">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -20861,7 +20861,7 @@
         <v>103.5</v>
       </c>
       <c r="B105">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -20893,7 +20893,7 @@
         <v>107.5</v>
       </c>
       <c r="B109">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -20901,7 +20901,7 @@
         <v>108.5</v>
       </c>
       <c r="B110">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -20909,7 +20909,7 @@
         <v>109.5</v>
       </c>
       <c r="B111">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -20933,7 +20933,7 @@
         <v>112.5</v>
       </c>
       <c r="B114">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -20941,7 +20941,7 @@
         <v>113.5</v>
       </c>
       <c r="B115">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -20957,7 +20957,7 @@
         <v>115.5</v>
       </c>
       <c r="B117">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -20965,7 +20965,7 @@
         <v>116.5</v>
       </c>
       <c r="B118">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -20989,7 +20989,7 @@
         <v>119.5</v>
       </c>
       <c r="B121">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -20997,7 +20997,7 @@
         <v>120.5</v>
       </c>
       <c r="B122">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -21013,7 +21013,7 @@
         <v>122.5</v>
       </c>
       <c r="B124">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -21021,7 +21021,7 @@
         <v>123.5</v>
       </c>
       <c r="B125">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -21029,7 +21029,7 @@
         <v>124.5</v>
       </c>
       <c r="B126">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -21037,7 +21037,7 @@
         <v>125.5</v>
       </c>
       <c r="B127">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -21053,7 +21053,7 @@
         <v>127.5</v>
       </c>
       <c r="B129">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -21085,7 +21085,7 @@
         <v>131.5</v>
       </c>
       <c r="B133">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -21117,7 +21117,7 @@
         <v>135.5</v>
       </c>
       <c r="B137">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -21141,7 +21141,7 @@
         <v>138.5</v>
       </c>
       <c r="B140">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -21149,7 +21149,7 @@
         <v>139.5</v>
       </c>
       <c r="B141">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -21165,7 +21165,7 @@
         <v>141.5</v>
       </c>
       <c r="B143">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -21205,7 +21205,7 @@
         <v>146.5</v>
       </c>
       <c r="B148">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -21221,7 +21221,7 @@
         <v>148.5</v>
       </c>
       <c r="B150">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -21269,7 +21269,7 @@
         <v>154.5</v>
       </c>
       <c r="B156">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -21285,7 +21285,7 @@
         <v>156.5</v>
       </c>
       <c r="B158">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -21309,7 +21309,7 @@
         <v>159.5</v>
       </c>
       <c r="B161">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -21341,7 +21341,7 @@
         <v>163.5</v>
       </c>
       <c r="B165">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -21357,7 +21357,7 @@
         <v>165.5</v>
       </c>
       <c r="B167">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -21365,7 +21365,7 @@
         <v>166.5</v>
       </c>
       <c r="B168">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -21381,7 +21381,7 @@
         <v>168.5</v>
       </c>
       <c r="B170">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -21397,7 +21397,7 @@
         <v>170.5</v>
       </c>
       <c r="B172">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -21453,7 +21453,7 @@
         <v>177.5</v>
       </c>
       <c r="B179">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -21493,7 +21493,7 @@
         <v>182.5</v>
       </c>
       <c r="B184">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -21597,7 +21597,7 @@
         <v>195.5</v>
       </c>
       <c r="B197">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -21621,7 +21621,7 @@
         <v>198.5</v>
       </c>
       <c r="B200">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -21645,7 +21645,7 @@
         <v>201.5</v>
       </c>
       <c r="B203">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -21661,7 +21661,7 @@
         <v>203.5</v>
       </c>
       <c r="B205">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -21669,7 +21669,7 @@
         <v>204.5</v>
       </c>
       <c r="B206">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -21677,7 +21677,7 @@
         <v>205.5</v>
       </c>
       <c r="B207">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -21685,7 +21685,7 @@
         <v>206.5</v>
       </c>
       <c r="B208">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -21709,7 +21709,7 @@
         <v>209.5</v>
       </c>
       <c r="B211">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -21717,7 +21717,7 @@
         <v>210.5</v>
       </c>
       <c r="B212">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -21725,7 +21725,7 @@
         <v>211.5</v>
       </c>
       <c r="B213">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -21733,7 +21733,7 @@
         <v>212.5</v>
       </c>
       <c r="B214">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -21773,7 +21773,7 @@
         <v>217.5</v>
       </c>
       <c r="B219">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -21789,7 +21789,7 @@
         <v>219.5</v>
       </c>
       <c r="B221">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -21821,7 +21821,7 @@
         <v>223.5</v>
       </c>
       <c r="B225">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -21829,7 +21829,7 @@
         <v>224.5</v>
       </c>
       <c r="B226">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -21869,7 +21869,7 @@
         <v>229.5</v>
       </c>
       <c r="B231">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -21877,7 +21877,7 @@
         <v>230.5</v>
       </c>
       <c r="B232">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -21885,7 +21885,7 @@
         <v>231.5</v>
       </c>
       <c r="B233">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -21901,7 +21901,7 @@
         <v>233.5</v>
       </c>
       <c r="B235">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -21917,7 +21917,7 @@
         <v>235.5</v>
       </c>
       <c r="B237">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -21933,7 +21933,7 @@
         <v>237.5</v>
       </c>
       <c r="B239">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -21949,7 +21949,7 @@
         <v>239.5</v>
       </c>
       <c r="B241">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -21957,7 +21957,7 @@
         <v>240.5</v>
       </c>
       <c r="B242">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -21973,7 +21973,7 @@
         <v>242.5</v>
       </c>
       <c r="B244">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -21981,7 +21981,7 @@
         <v>243.5</v>
       </c>
       <c r="B245">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -21989,7 +21989,7 @@
         <v>244.5</v>
       </c>
       <c r="B246">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -22005,7 +22005,7 @@
         <v>246.5</v>
       </c>
       <c r="B248">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -22013,7 +22013,7 @@
         <v>247.5</v>
       </c>
       <c r="B249">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -22037,7 +22037,7 @@
         <v>250.5</v>
       </c>
       <c r="B252">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -22125,7 +22125,7 @@
         <v>261.5</v>
       </c>
       <c r="B263">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -22133,7 +22133,7 @@
         <v>262.5</v>
       </c>
       <c r="B264">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -22173,7 +22173,7 @@
         <v>267.5</v>
       </c>
       <c r="B269">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -22181,7 +22181,7 @@
         <v>268.5</v>
       </c>
       <c r="B270">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -22189,7 +22189,7 @@
         <v>269.5</v>
       </c>
       <c r="B271">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -22221,7 +22221,7 @@
         <v>273.5</v>
       </c>
       <c r="B275">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -22237,7 +22237,7 @@
         <v>275.5</v>
       </c>
       <c r="B277">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -22245,7 +22245,7 @@
         <v>276.5</v>
       </c>
       <c r="B278">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -22261,7 +22261,7 @@
         <v>278.5</v>
       </c>
       <c r="B280">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -22277,7 +22277,7 @@
         <v>280.5</v>
       </c>
       <c r="B282">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -22301,7 +22301,7 @@
         <v>283.5</v>
       </c>
       <c r="B285">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -22309,7 +22309,7 @@
         <v>284.5</v>
       </c>
       <c r="B286">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -22349,7 +22349,7 @@
         <v>289.5</v>
       </c>
       <c r="B291">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -22381,7 +22381,7 @@
         <v>293.5</v>
       </c>
       <c r="B295">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -22389,7 +22389,7 @@
         <v>294.5</v>
       </c>
       <c r="B296">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -22397,7 +22397,7 @@
         <v>295.5</v>
       </c>
       <c r="B297">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -22421,7 +22421,7 @@
         <v>298.5</v>
       </c>
       <c r="B300">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -22429,7 +22429,7 @@
         <v>299.5</v>
       </c>
       <c r="B301">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -22437,7 +22437,7 @@
         <v>300.5</v>
       </c>
       <c r="B302">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -22445,7 +22445,7 @@
         <v>301.5</v>
       </c>
       <c r="B303">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -22453,7 +22453,7 @@
         <v>302.5</v>
       </c>
       <c r="B304">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -22469,7 +22469,7 @@
         <v>304.5</v>
       </c>
       <c r="B306">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -22477,7 +22477,7 @@
         <v>305.5</v>
       </c>
       <c r="B307">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -22485,7 +22485,7 @@
         <v>306.5</v>
       </c>
       <c r="B308">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -22493,7 +22493,7 @@
         <v>307.5</v>
       </c>
       <c r="B309">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -22541,7 +22541,7 @@
         <v>313.5</v>
       </c>
       <c r="B315">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -22573,7 +22573,7 @@
         <v>317.5</v>
       </c>
       <c r="B319">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -22581,7 +22581,7 @@
         <v>318.5</v>
       </c>
       <c r="B320">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -22589,7 +22589,7 @@
         <v>319.5</v>
       </c>
       <c r="B321">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -22613,7 +22613,7 @@
         <v>322.5</v>
       </c>
       <c r="B324">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -22637,7 +22637,7 @@
         <v>325.5</v>
       </c>
       <c r="B327">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -22645,7 +22645,7 @@
         <v>326.5</v>
       </c>
       <c r="B328">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -22653,7 +22653,7 @@
         <v>327.5</v>
       </c>
       <c r="B329">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -22677,7 +22677,7 @@
         <v>330.5</v>
       </c>
       <c r="B332">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -22685,7 +22685,7 @@
         <v>331.5</v>
       </c>
       <c r="B333">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -22693,7 +22693,7 @@
         <v>332.5</v>
       </c>
       <c r="B334">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -22733,7 +22733,7 @@
         <v>337.5</v>
       </c>
       <c r="B339">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -22757,7 +22757,7 @@
         <v>340.5</v>
       </c>
       <c r="B342">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -22789,7 +22789,7 @@
         <v>344.5</v>
       </c>
       <c r="B346">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -22805,7 +22805,7 @@
         <v>346.5</v>
       </c>
       <c r="B348">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -22813,7 +22813,7 @@
         <v>347.5</v>
       </c>
       <c r="B349">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -22829,7 +22829,7 @@
         <v>349.5</v>
       </c>
       <c r="B351">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -22853,7 +22853,7 @@
         <v>352.5</v>
       </c>
       <c r="B354">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -22861,7 +22861,7 @@
         <v>353.5</v>
       </c>
       <c r="B355">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -22877,7 +22877,7 @@
         <v>355.5</v>
       </c>
       <c r="B357">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -22885,7 +22885,7 @@
         <v>356.5</v>
       </c>
       <c r="B358">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -22909,7 +22909,7 @@
         <v>359.5</v>
       </c>
       <c r="B361">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -22917,7 +22917,7 @@
         <v>360.5</v>
       </c>
       <c r="B362">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -22925,7 +22925,7 @@
         <v>361.5</v>
       </c>
       <c r="B363">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -22933,7 +22933,7 @@
         <v>362.5</v>
       </c>
       <c r="B364">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -22957,7 +22957,7 @@
         <v>365.5</v>
       </c>
       <c r="B367">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -22989,7 +22989,7 @@
         <v>369.5</v>
       </c>
       <c r="B371">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -22997,7 +22997,7 @@
         <v>370.5</v>
       </c>
       <c r="B372">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -23013,7 +23013,7 @@
         <v>372.5</v>
       </c>
       <c r="B374">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -23029,7 +23029,7 @@
         <v>374.5</v>
       </c>
       <c r="B376">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -23061,7 +23061,7 @@
         <v>378.5</v>
       </c>
       <c r="B380">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -23069,7 +23069,7 @@
         <v>379.5</v>
       </c>
       <c r="B381">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -23085,7 +23085,7 @@
         <v>381.5</v>
       </c>
       <c r="B383">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -23093,7 +23093,7 @@
         <v>382.5</v>
       </c>
       <c r="B384">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -23117,7 +23117,7 @@
         <v>385.5</v>
       </c>
       <c r="B387">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -23157,7 +23157,7 @@
         <v>390.5</v>
       </c>
       <c r="B392">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -23197,7 +23197,7 @@
         <v>395.5</v>
       </c>
       <c r="B397">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -23221,7 +23221,7 @@
         <v>398.5</v>
       </c>
       <c r="B400">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -23229,7 +23229,7 @@
         <v>399.5</v>
       </c>
       <c r="B401">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -23261,7 +23261,7 @@
         <v>403.5</v>
       </c>
       <c r="B405">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -23269,7 +23269,7 @@
         <v>404.5</v>
       </c>
       <c r="B406">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -23285,7 +23285,7 @@
         <v>406.5</v>
       </c>
       <c r="B408">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -23293,7 +23293,7 @@
         <v>407.5</v>
       </c>
       <c r="B409">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -23309,7 +23309,7 @@
         <v>409.5</v>
       </c>
       <c r="B411">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -23325,7 +23325,7 @@
         <v>411.5</v>
       </c>
       <c r="B413">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -23349,7 +23349,7 @@
         <v>414.5</v>
       </c>
       <c r="B416">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -23357,7 +23357,7 @@
         <v>415.5</v>
       </c>
       <c r="B417">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -23381,7 +23381,7 @@
         <v>418.5</v>
       </c>
       <c r="B420">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -23389,7 +23389,7 @@
         <v>419.5</v>
       </c>
       <c r="B421">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -23429,7 +23429,7 @@
         <v>424.5</v>
       </c>
       <c r="B426">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -23469,7 +23469,7 @@
         <v>429.5</v>
       </c>
       <c r="B431">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -23501,7 +23501,7 @@
         <v>433.5</v>
       </c>
       <c r="B435">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -23509,7 +23509,7 @@
         <v>434.5</v>
       </c>
       <c r="B436">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -23525,7 +23525,7 @@
         <v>436.5</v>
       </c>
       <c r="B438">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -23533,7 +23533,7 @@
         <v>437.5</v>
       </c>
       <c r="B439">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -23557,7 +23557,7 @@
         <v>440.5</v>
       </c>
       <c r="B442">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -23573,7 +23573,7 @@
         <v>442.5</v>
       </c>
       <c r="B444">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -23581,7 +23581,7 @@
         <v>443.5</v>
       </c>
       <c r="B445">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -23589,7 +23589,7 @@
         <v>444.5</v>
       </c>
       <c r="B446">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -23605,7 +23605,7 @@
         <v>446.5</v>
       </c>
       <c r="B448">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -23637,7 +23637,7 @@
         <v>450.5</v>
       </c>
       <c r="B452">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -23669,7 +23669,7 @@
         <v>454.5</v>
       </c>
       <c r="B456">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -23677,7 +23677,7 @@
         <v>455.5</v>
       </c>
       <c r="B457">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -23685,7 +23685,7 @@
         <v>456.5</v>
       </c>
       <c r="B458">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -23765,7 +23765,7 @@
         <v>466.5</v>
       </c>
       <c r="B468">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -23805,7 +23805,7 @@
         <v>471.5</v>
       </c>
       <c r="B473">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -23821,7 +23821,7 @@
         <v>473.5</v>
       </c>
       <c r="B475">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -23845,7 +23845,7 @@
         <v>476.5</v>
       </c>
       <c r="B478">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -23853,7 +23853,7 @@
         <v>477.5</v>
       </c>
       <c r="B479">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -23861,7 +23861,7 @@
         <v>478.5</v>
       </c>
       <c r="B480">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -23869,7 +23869,7 @@
         <v>479.5</v>
       </c>
       <c r="B481">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -23877,7 +23877,7 @@
         <v>480.5</v>
       </c>
       <c r="B482">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -23893,7 +23893,7 @@
         <v>482.5</v>
       </c>
       <c r="B484">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -23909,7 +23909,7 @@
         <v>484.5</v>
       </c>
       <c r="B486">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -23933,7 +23933,7 @@
         <v>487.5</v>
       </c>
       <c r="B489">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -24013,7 +24013,7 @@
         <v>497.5</v>
       </c>
       <c r="B499">
-        <v>1.3846153846153775</v>
+        <v>1.3846153846153777</v>
       </c>
     </row>
     <row r="500" spans="1:2">

--- a/test/POC1G/model_output.POC1G.xlsx
+++ b/test/POC1G/model_output.POC1G.xlsx
@@ -532,7 +532,7 @@
         <v>14.5</v>
       </c>
       <c r="B16">
-        <v>2.9999999999999853</v>
+        <v>2.999999999999985</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -572,7 +572,7 @@
         <v>19.5</v>
       </c>
       <c r="B21">
-        <v>2.9999999999999853</v>
+        <v>2.999999999999985</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -636,7 +636,7 @@
         <v>27.5</v>
       </c>
       <c r="B29">
-        <v>2.9999999999999853</v>
+        <v>2.999999999999985</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4553,7 +4553,7 @@
         <v>14.5</v>
       </c>
       <c r="B16">
-        <v>0.014999999999999927</v>
+        <v>0.014999999999999925</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4593,7 +4593,7 @@
         <v>19.5</v>
       </c>
       <c r="B21">
-        <v>0.014999999999999927</v>
+        <v>0.014999999999999925</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4657,7 +4657,7 @@
         <v>27.5</v>
       </c>
       <c r="B29">
-        <v>0.014999999999999927</v>
+        <v>0.014999999999999925</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -16128,7 +16128,7 @@
         <v>14.5</v>
       </c>
       <c r="B16">
-        <v>-0.014999999999999927</v>
+        <v>-0.014999999999999925</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -16168,7 +16168,7 @@
         <v>19.5</v>
       </c>
       <c r="B21">
-        <v>-0.014999999999999927</v>
+        <v>-0.014999999999999925</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -16232,7 +16232,7 @@
         <v>27.5</v>
       </c>
       <c r="B29">
-        <v>-0.014999999999999927</v>
+        <v>-0.014999999999999925</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -20149,7 +20149,7 @@
         <v>14.5</v>
       </c>
       <c r="B16">
-        <v>1.3846153846153777</v>
+        <v>1.3846153846153775</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -20189,7 +20189,7 @@
         <v>19.5</v>
       </c>
       <c r="B21">
-        <v>1.3846153846153777</v>
+        <v>1.3846153846153775</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -20253,7 +20253,7 @@
         <v>27.5</v>
       </c>
       <c r="B29">
-        <v>1.3846153846153777</v>
+        <v>1.3846153846153775</v>
       </c>
     </row>
     <row r="30" spans="1:2">
